--- a/Documentation/risk_assessment.xlsx
+++ b/Documentation/risk_assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alikh\Documents\QA Academy\IMS Project\IMS_github_repo\IMS-Starter\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED98A7-6D37-400A-BEBF-97FB8FE77C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187B310-CDB9-435B-8FEE-06DCDF68F5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3350B8E-039A-4E9C-9F1B-59D84F862671}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Severity</t>
   </si>
@@ -125,6 +125,26 @@
   </si>
   <si>
     <t>Save work regularly and push to github often</t>
+  </si>
+  <si>
+    <t>Extremely Low</t>
+  </si>
+  <si>
+    <t>Save work regularly. Keep cables out of reach that could 
+accidentaly be unplugged. Use laptop if possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use good quality cables and power supplies. </t>
+  </si>
+  <si>
+    <t>Keep any loose cables out of walking paths</t>
+  </si>
+  <si>
+    <t>Take regular breaks. Plan work accordingly</t>
+  </si>
+  <si>
+    <t>Keep any flammable materials away from sockets. 
+Keep computer well venitilated.</t>
   </si>
 </sst>
 </file>
@@ -202,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -210,56 +230,368 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -277,6 +609,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEBF89F-ABF8-46AB-B5E5-4EEEC698721B}" name="Table1" displayName="Table1" ref="B3:F11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B3:F11" xr:uid="{3BEBF89F-ABF8-46AB-B5E5-4EEEC698721B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2244E4E3-ED06-4EBD-B78C-1886F21E99AB}" name="Risk" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F83CE816-EF34-4761-8898-CA3983406AC3}" name="Risk Serverity" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B686C6F3-ED2D-496D-8600-CCC29A6D1124}" name="Risk Likelyhood" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0182784E-9FCC-446E-ABB7-A03B628386B5}" name="Risk Level" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{720942E0-0B03-4882-B0A9-156397C23AC5}" name="Mitigations" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,34 +922,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC160A-95DF-4DA9-80BA-A7E7A9220E9B}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -621,230 +988,247 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="13"/>
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    <row r="11" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="K2:O2"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>